--- a/code/results/SP/B/signal_reconstruction/counters_means.xlsx
+++ b/code/results/SP/B/signal_reconstruction/counters_means.xlsx
@@ -468,58 +468,58 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>44217291.796875</v>
+        <v>45544216.20967742</v>
       </c>
       <c r="C2" t="n">
-        <v>68280.578125</v>
+        <v>70640.3870967742</v>
       </c>
       <c r="D2" t="n">
-        <v>117851184.34375</v>
+        <v>117698187.2096774</v>
       </c>
       <c r="E2" t="n">
-        <v>274744843.859375</v>
+        <v>283400001.2741935</v>
       </c>
       <c r="F2" t="n">
-        <v>416063.484375</v>
+        <v>451289.5483870968</v>
       </c>
       <c r="G2" t="n">
-        <v>3767230.234375</v>
+        <v>4005194.258064516</v>
       </c>
       <c r="H2" t="n">
-        <v>2837.84375</v>
+        <v>2839.129032258064</v>
       </c>
       <c r="I2" t="n">
-        <v>8051567.84375</v>
+        <v>8307374.532258064</v>
       </c>
       <c r="J2" t="n">
-        <v>4129067.546875</v>
+        <v>4140077.435483871</v>
       </c>
       <c r="K2" t="n">
-        <v>6936892.234375</v>
+        <v>7141847.645161291</v>
       </c>
       <c r="L2" t="n">
-        <v>11588.6875</v>
+        <v>10453.90322580645</v>
       </c>
       <c r="M2" t="n">
-        <v>17206.84375</v>
+        <v>19642.27419354839</v>
       </c>
       <c r="N2" t="n">
-        <v>31549804.9375</v>
+        <v>32520514.48387097</v>
       </c>
       <c r="O2" t="n">
-        <v>31999594.296875</v>
+        <v>29222038.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.953125</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.0625</v>
+        <v>10.12903225806452</v>
       </c>
       <c r="R2" t="n">
-        <v>13943185.265625</v>
+        <v>14983258.77419355</v>
       </c>
       <c r="S2" t="n">
-        <v>324100944.453125</v>
+        <v>333390769.0967742</v>
       </c>
     </row>
     <row r="3">
@@ -527,58 +527,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40032868.18571428</v>
+        <v>44056115.671875</v>
       </c>
       <c r="C3" t="n">
-        <v>65053.38571428572</v>
+        <v>71576.5</v>
       </c>
       <c r="D3" t="n">
-        <v>117159579.1142857</v>
+        <v>117538429.21875</v>
       </c>
       <c r="E3" t="n">
-        <v>249382454.2</v>
+        <v>272407973.4375</v>
       </c>
       <c r="F3" t="n">
-        <v>400810.4285714286</v>
+        <v>484045.890625</v>
       </c>
       <c r="G3" t="n">
-        <v>3471887.9</v>
+        <v>3907172.671875</v>
       </c>
       <c r="H3" t="n">
-        <v>2854.228571428571</v>
+        <v>2843.109375</v>
       </c>
       <c r="I3" t="n">
-        <v>7319437.114285714</v>
+        <v>7981321.8125</v>
       </c>
       <c r="J3" t="n">
-        <v>3702800.085714286</v>
+        <v>3921008.265625</v>
       </c>
       <c r="K3" t="n">
-        <v>6281055.428571428</v>
+        <v>6843140.59375</v>
       </c>
       <c r="L3" t="n">
-        <v>11551.81428571429</v>
+        <v>12587.390625</v>
       </c>
       <c r="M3" t="n">
-        <v>18044.71428571429</v>
+        <v>22337.125</v>
       </c>
       <c r="N3" t="n">
-        <v>28190248.57142857</v>
+        <v>31250154.546875</v>
       </c>
       <c r="O3" t="n">
-        <v>28629644.1</v>
+        <v>22955848.703125</v>
       </c>
       <c r="P3" t="n">
-        <v>10.51428571428571</v>
+        <v>0.34375</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.94285714285714</v>
+        <v>36.40625</v>
       </c>
       <c r="R3" t="n">
-        <v>18764151.55714286</v>
+        <v>18048205.609375</v>
       </c>
       <c r="S3" t="n">
-        <v>325240749.0714286</v>
+        <v>323479431.25</v>
       </c>
     </row>
     <row r="4">
@@ -586,58 +586,58 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10626203.4400978</v>
+        <v>10886742.12745098</v>
       </c>
       <c r="C4" t="n">
-        <v>26951.42787286064</v>
+        <v>27353.7181372549</v>
       </c>
       <c r="D4" t="n">
-        <v>117022146.9804401</v>
+        <v>118021101.9656863</v>
       </c>
       <c r="E4" t="n">
-        <v>264623945.4278729</v>
+        <v>271322946.7573529</v>
       </c>
       <c r="F4" t="n">
-        <v>122685.95599022</v>
+        <v>121220.9215686275</v>
       </c>
       <c r="G4" t="n">
-        <v>1176916.709046455</v>
+        <v>1276655.137254902</v>
       </c>
       <c r="H4" t="n">
-        <v>2726696.268948655</v>
+        <v>2734093.536764706</v>
       </c>
       <c r="I4" t="n">
-        <v>5275455.953545232</v>
+        <v>5411433.514705882</v>
       </c>
       <c r="J4" t="n">
-        <v>3823546</v>
+        <v>3863073.713235294</v>
       </c>
       <c r="K4" t="n">
-        <v>4736418.863080685</v>
+        <v>4847039.799019608</v>
       </c>
       <c r="L4" t="n">
-        <v>144912.2371638142</v>
+        <v>157197.6789215686</v>
       </c>
       <c r="M4" t="n">
-        <v>19390.1271393643</v>
+        <v>18983.83578431372</v>
       </c>
       <c r="N4" t="n">
-        <v>13459906.77506112</v>
+        <v>13764834.66421569</v>
       </c>
       <c r="O4" t="n">
-        <v>11459053.84841076</v>
+        <v>12023435.14460784</v>
       </c>
       <c r="P4" t="n">
-        <v>4.215158924205379</v>
+        <v>0.7818627450980392</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.589242053789731</v>
+        <v>9.009803921568627</v>
       </c>
       <c r="R4" t="n">
-        <v>33669048.57212714</v>
+        <v>34562627.48529412</v>
       </c>
       <c r="S4" t="n">
-        <v>341577486.7799511</v>
+        <v>344686514.8676471</v>
       </c>
     </row>
     <row r="5">
@@ -645,58 +645,58 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11065414.94376528</v>
+        <v>11094765.71568627</v>
       </c>
       <c r="C5" t="n">
-        <v>27618.21271393643</v>
+        <v>27582.83823529412</v>
       </c>
       <c r="D5" t="n">
-        <v>117991566.9804401</v>
+        <v>118352818.3235294</v>
       </c>
       <c r="E5" t="n">
-        <v>272583648.4400978</v>
+        <v>273622948.2990196</v>
       </c>
       <c r="F5" t="n">
-        <v>125476.95599022</v>
+        <v>122328.6495098039</v>
       </c>
       <c r="G5" t="n">
-        <v>1196418.454767726</v>
+        <v>1285596.237745098</v>
       </c>
       <c r="H5" t="n">
-        <v>2803763.704156479</v>
+        <v>2933997.019607843</v>
       </c>
       <c r="I5" t="n">
-        <v>5408235.973105134</v>
+        <v>5430001.242647059</v>
       </c>
       <c r="J5" t="n">
-        <v>3933999.650366748</v>
+        <v>3881317.009803921</v>
       </c>
       <c r="K5" t="n">
-        <v>4847941.875305624</v>
+        <v>4859600.68627451</v>
       </c>
       <c r="L5" t="n">
-        <v>147309.2811735941</v>
+        <v>161096.3431372549</v>
       </c>
       <c r="M5" t="n">
-        <v>23088.22249388753</v>
+        <v>20551.20343137255</v>
       </c>
       <c r="N5" t="n">
-        <v>13856524.84352078</v>
+        <v>13903004.30147059</v>
       </c>
       <c r="O5" t="n">
-        <v>13947321.23471883</v>
+        <v>14305746.03676471</v>
       </c>
       <c r="P5" t="n">
-        <v>4.146699266503667</v>
+        <v>2.382352941176471</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.975550122249389</v>
+        <v>3.727941176470588</v>
       </c>
       <c r="R5" t="n">
-        <v>33807820.4205379</v>
+        <v>34567309.56127451</v>
       </c>
       <c r="S5" t="n">
-        <v>341503621.400978</v>
+        <v>344801726.9656863</v>
       </c>
     </row>
     <row r="6">
@@ -704,58 +704,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4536249.612903226</v>
+        <v>4563868.419354838</v>
       </c>
       <c r="C6" t="n">
-        <v>45014.4623655914</v>
+        <v>45334.88172043011</v>
       </c>
       <c r="D6" t="n">
-        <v>117811647.3870968</v>
+        <v>118145704</v>
       </c>
       <c r="E6" t="n">
-        <v>279483899.0322581</v>
+        <v>280323647.4946237</v>
       </c>
       <c r="F6" t="n">
-        <v>186036.0107526882</v>
+        <v>186921.0430107527</v>
       </c>
       <c r="G6" t="n">
-        <v>1559013.602150538</v>
+        <v>1655947.580645161</v>
       </c>
       <c r="H6" t="n">
-        <v>25154588.29032258</v>
+        <v>25182871.13978495</v>
       </c>
       <c r="I6" t="n">
-        <v>6120771.494623655</v>
+        <v>6126395.365591398</v>
       </c>
       <c r="J6" t="n">
-        <v>4513378.795698925</v>
+        <v>4424451.688172043</v>
       </c>
       <c r="K6" t="n">
-        <v>5844881.505376345</v>
+        <v>5823205.419354838</v>
       </c>
       <c r="L6" t="n">
-        <v>8424.591397849463</v>
+        <v>10065.49462365591</v>
       </c>
       <c r="M6" t="n">
-        <v>20951.9247311828</v>
+        <v>21808.94623655914</v>
       </c>
       <c r="N6" t="n">
-        <v>21701704.77419355</v>
+        <v>21770946.16129032</v>
       </c>
       <c r="O6" t="n">
-        <v>19655625.17204301</v>
+        <v>22050368.07526882</v>
       </c>
       <c r="P6" t="n">
-        <v>6.161290322580645</v>
+        <v>2.129032258064516</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.623655913978495</v>
+        <v>2.129032258064516</v>
       </c>
       <c r="R6" t="n">
-        <v>37057466.91397849</v>
+        <v>37269549.70967742</v>
       </c>
       <c r="S6" t="n">
-        <v>318182109.4516129</v>
+        <v>319745888.4193549</v>
       </c>
     </row>
     <row r="7">
@@ -763,58 +763,58 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4501745.279569892</v>
+        <v>4465444.425531914</v>
       </c>
       <c r="C7" t="n">
-        <v>44814.90322580645</v>
+        <v>44356.24468085106</v>
       </c>
       <c r="D7" t="n">
-        <v>117846665.3763441</v>
+        <v>117710571.2234043</v>
       </c>
       <c r="E7" t="n">
-        <v>277235702.4193549</v>
+        <v>275226118.4255319</v>
       </c>
       <c r="F7" t="n">
-        <v>197539.7096774194</v>
+        <v>206263.914893617</v>
       </c>
       <c r="G7" t="n">
-        <v>1572713.784946237</v>
+        <v>1592776.712765957</v>
       </c>
       <c r="H7" t="n">
-        <v>24888046.52688172</v>
+        <v>24757677.89361702</v>
       </c>
       <c r="I7" t="n">
-        <v>6059863.849462366</v>
+        <v>6033424.521276596</v>
       </c>
       <c r="J7" t="n">
-        <v>4439850.76344086</v>
+        <v>4400700.765957447</v>
       </c>
       <c r="K7" t="n">
-        <v>5794556.569892474</v>
+        <v>5753358.79787234</v>
       </c>
       <c r="L7" t="n">
-        <v>8233.473118279569</v>
+        <v>8857.840425531915</v>
       </c>
       <c r="M7" t="n">
-        <v>19320.91397849462</v>
+        <v>22730.67021276596</v>
       </c>
       <c r="N7" t="n">
-        <v>21540837.50537634</v>
+        <v>21414091.56382979</v>
       </c>
       <c r="O7" t="n">
-        <v>21794370.64516129</v>
+        <v>18783206.03191489</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1935483870967742</v>
+        <v>1.531914893617021</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.376344086021505</v>
+        <v>13.45744680851064</v>
       </c>
       <c r="R7" t="n">
-        <v>37239874.72043011</v>
+        <v>37434969.22340426</v>
       </c>
       <c r="S7" t="n">
-        <v>317045114.6666667</v>
+        <v>315626319.2127659</v>
       </c>
     </row>
     <row r="8">
@@ -822,58 +822,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13042971.56097561</v>
+        <v>13523793.58924205</v>
       </c>
       <c r="C8" t="n">
-        <v>40355.96341463415</v>
+        <v>41621.31051344743</v>
       </c>
       <c r="D8" t="n">
-        <v>117062341.0292683</v>
+        <v>117938206.5794621</v>
       </c>
       <c r="E8" t="n">
-        <v>245456056.9634146</v>
+        <v>254739732.5525672</v>
       </c>
       <c r="F8" t="n">
-        <v>81908.93658536585</v>
+        <v>82623.65770171149</v>
       </c>
       <c r="G8" t="n">
-        <v>1306023.887804878</v>
+        <v>1316981.202933985</v>
       </c>
       <c r="H8" t="n">
-        <v>5278677.307317073</v>
+        <v>5833381.748166259</v>
       </c>
       <c r="I8" t="n">
-        <v>4883196.73902439</v>
+        <v>5075191.885085574</v>
       </c>
       <c r="J8" t="n">
-        <v>2835997.029268293</v>
+        <v>2980235.259168704</v>
       </c>
       <c r="K8" t="n">
-        <v>3736705.124390244</v>
+        <v>3884582.078239609</v>
       </c>
       <c r="L8" t="n">
-        <v>174830.8317073171</v>
+        <v>169153.9339853301</v>
       </c>
       <c r="M8" t="n">
-        <v>20605.42682926829</v>
+        <v>21880.38386308069</v>
       </c>
       <c r="N8" t="n">
-        <v>33388439.71951219</v>
+        <v>34658206.05867971</v>
       </c>
       <c r="O8" t="n">
-        <v>32862584.55365854</v>
+        <v>34101412.31784841</v>
       </c>
       <c r="P8" t="n">
-        <v>3.01219512195122</v>
+        <v>0.7579462102689487</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.151219512195122</v>
+        <v>3.146699266503667</v>
       </c>
       <c r="R8" t="n">
-        <v>35018676.41463415</v>
+        <v>34338861.17359413</v>
       </c>
       <c r="S8" t="n">
-        <v>327183064.1073171</v>
+        <v>325887536.0122249</v>
       </c>
     </row>
     <row r="9">
@@ -881,58 +881,58 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13520742.96577017</v>
+        <v>13514900.07107843</v>
       </c>
       <c r="C9" t="n">
-        <v>41795.86797066015</v>
+        <v>41327.87254901961</v>
       </c>
       <c r="D9" t="n">
-        <v>117979078.3643032</v>
+        <v>117958757.8235294</v>
       </c>
       <c r="E9" t="n">
-        <v>255277624.4180929</v>
+        <v>254531381.4803922</v>
       </c>
       <c r="F9" t="n">
-        <v>80769.61369193155</v>
+        <v>80550.01715686274</v>
       </c>
       <c r="G9" t="n">
-        <v>1330324.200488998</v>
+        <v>1368981.654411765</v>
       </c>
       <c r="H9" t="n">
-        <v>5532476.770171149</v>
+        <v>6040234.517156863</v>
       </c>
       <c r="I9" t="n">
-        <v>5062555.613691932</v>
+        <v>5387269.625</v>
       </c>
       <c r="J9" t="n">
-        <v>2957802.479217604</v>
+        <v>2939417.294117647</v>
       </c>
       <c r="K9" t="n">
-        <v>3871173.975550122</v>
+        <v>3873948.196078431</v>
       </c>
       <c r="L9" t="n">
-        <v>173735.1760391198</v>
+        <v>177815.1323529412</v>
       </c>
       <c r="M9" t="n">
-        <v>20285.8826405868</v>
+        <v>19706.48529411765</v>
       </c>
       <c r="N9" t="n">
-        <v>34600639.43031785</v>
+        <v>34635651.26715686</v>
       </c>
       <c r="O9" t="n">
-        <v>34735453.74327628</v>
+        <v>34764179.52696078</v>
       </c>
       <c r="P9" t="n">
-        <v>3.017114914425428</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.80440097799511</v>
+        <v>3.340686274509804</v>
       </c>
       <c r="R9" t="n">
-        <v>35889358.42298289</v>
+        <v>34521594.36519608</v>
       </c>
       <c r="S9" t="n">
-        <v>325458502.6381418</v>
+        <v>327317649.884804</v>
       </c>
     </row>
     <row r="10">
@@ -940,58 +940,58 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11884985.92909535</v>
+        <v>11857641.58476659</v>
       </c>
       <c r="C10" t="n">
-        <v>37418.26894865526</v>
+        <v>38016.6855036855</v>
       </c>
       <c r="D10" t="n">
-        <v>118089880.9364303</v>
+        <v>118092940.8058968</v>
       </c>
       <c r="E10" t="n">
-        <v>224044768.4718826</v>
+        <v>223135390.9410319</v>
       </c>
       <c r="F10" t="n">
-        <v>82622.41320293398</v>
+        <v>84934.30958230958</v>
       </c>
       <c r="G10" t="n">
-        <v>1293441.161369193</v>
+        <v>1277194.027027027</v>
       </c>
       <c r="H10" t="n">
-        <v>5444113.332518337</v>
+        <v>5363242.668304669</v>
       </c>
       <c r="I10" t="n">
-        <v>6038231.107579462</v>
+        <v>6012488.321867322</v>
       </c>
       <c r="J10" t="n">
-        <v>4114628.760391198</v>
+        <v>4110521.717444717</v>
       </c>
       <c r="K10" t="n">
-        <v>4873699.547677262</v>
+        <v>4852968.515970516</v>
       </c>
       <c r="L10" t="n">
-        <v>379402.488997555</v>
+        <v>378034.7223587224</v>
       </c>
       <c r="M10" t="n">
-        <v>18845.69926650367</v>
+        <v>21735.09582309582</v>
       </c>
       <c r="N10" t="n">
-        <v>30664584.26650367</v>
+        <v>31094123.85503685</v>
       </c>
       <c r="O10" t="n">
-        <v>30795393.51100244</v>
+        <v>31210230.36855037</v>
       </c>
       <c r="P10" t="n">
-        <v>1.82640586797066</v>
+        <v>2.742014742014742</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.552567237163814</v>
+        <v>1.614250614250614</v>
       </c>
       <c r="R10" t="n">
-        <v>44391816.4596577</v>
+        <v>44649541.82800983</v>
       </c>
       <c r="S10" t="n">
-        <v>290289062.5281174</v>
+        <v>290843242.8673218</v>
       </c>
     </row>
     <row r="11">
@@ -999,58 +999,58 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11942700.82151589</v>
+        <v>11846131.79166667</v>
       </c>
       <c r="C11" t="n">
-        <v>37989.46210268949</v>
+        <v>38090.00490196078</v>
       </c>
       <c r="D11" t="n">
-        <v>118090641.5330073</v>
+        <v>118060801.2279412</v>
       </c>
       <c r="E11" t="n">
-        <v>225147769.8435208</v>
+        <v>222845438.0490196</v>
       </c>
       <c r="F11" t="n">
-        <v>81536.35207823961</v>
+        <v>82750.1593137255</v>
       </c>
       <c r="G11" t="n">
-        <v>1274109.37408313</v>
+        <v>1288053.294117647</v>
       </c>
       <c r="H11" t="n">
-        <v>5477272.821515893</v>
+        <v>5343350.44117647</v>
       </c>
       <c r="I11" t="n">
-        <v>6092464.62591687</v>
+        <v>6014267.00245098</v>
       </c>
       <c r="J11" t="n">
-        <v>4181703.853300733</v>
+        <v>4104557.036764706</v>
       </c>
       <c r="K11" t="n">
-        <v>4923698.114914426</v>
+        <v>4856848.921568627</v>
       </c>
       <c r="L11" t="n">
-        <v>376228.2469437653</v>
+        <v>377845.9093137255</v>
       </c>
       <c r="M11" t="n">
-        <v>19360.83863080685</v>
+        <v>20626.36274509804</v>
       </c>
       <c r="N11" t="n">
-        <v>30838539.59413203</v>
+        <v>31056599.19852941</v>
       </c>
       <c r="O11" t="n">
-        <v>30971796.81662592</v>
+        <v>31181441.24509804</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9462102689486552</v>
+        <v>3.816176470588236</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7603911980440098</v>
+        <v>2.04656862745098</v>
       </c>
       <c r="R11" t="n">
-        <v>43568138.09046455</v>
+        <v>44448445.76470588</v>
       </c>
       <c r="S11" t="n">
-        <v>292706023.7408313</v>
+        <v>291128744.0906863</v>
       </c>
     </row>
     <row r="12">
@@ -1058,58 +1058,58 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10911675.34390244</v>
+        <v>10786875.65525672</v>
       </c>
       <c r="C12" t="n">
-        <v>35134.66097560975</v>
+        <v>34697.21515892421</v>
       </c>
       <c r="D12" t="n">
-        <v>118096400.7756098</v>
+        <v>117903326.207824</v>
       </c>
       <c r="E12" t="n">
-        <v>221964062.7951219</v>
+        <v>218978850.7677262</v>
       </c>
       <c r="F12" t="n">
-        <v>64366.45609756098</v>
+        <v>67699.48166259169</v>
       </c>
       <c r="G12" t="n">
-        <v>1289084.129268293</v>
+        <v>1289270.909535452</v>
       </c>
       <c r="H12" t="n">
-        <v>6351704.21707317</v>
+        <v>6332716.638141809</v>
       </c>
       <c r="I12" t="n">
-        <v>5992806.997560976</v>
+        <v>5913999.070904645</v>
       </c>
       <c r="J12" t="n">
-        <v>4150604.680487805</v>
+        <v>4083239.158924205</v>
       </c>
       <c r="K12" t="n">
-        <v>4954534.37804878</v>
+        <v>4889045.454767726</v>
       </c>
       <c r="L12" t="n">
-        <v>353117.2292682927</v>
+        <v>346684.8361858191</v>
       </c>
       <c r="M12" t="n">
-        <v>22964.76585365854</v>
+        <v>21638.27628361858</v>
       </c>
       <c r="N12" t="n">
-        <v>27372681.35365854</v>
+        <v>27566272.83374083</v>
       </c>
       <c r="O12" t="n">
-        <v>27506894.02682927</v>
+        <v>28430495.3202934</v>
       </c>
       <c r="P12" t="n">
-        <v>0.02195121951219512</v>
+        <v>0.1784841075794621</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.288508557457213</v>
       </c>
       <c r="R12" t="n">
-        <v>44122915.53414634</v>
+        <v>44720682.64792176</v>
       </c>
       <c r="S12" t="n">
-        <v>284668988.8731707</v>
+        <v>296599662.0782396</v>
       </c>
     </row>
     <row r="13">
@@ -1117,58 +1117,58 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10763976.50490196</v>
+        <v>10797031.19117647</v>
       </c>
       <c r="C13" t="n">
-        <v>34689.17892156863</v>
+        <v>34608.24019607843</v>
       </c>
       <c r="D13" t="n">
-        <v>118084069.4093137</v>
+        <v>118034173.75</v>
       </c>
       <c r="E13" t="n">
-        <v>219389274.0171569</v>
+        <v>219101960.0588235</v>
       </c>
       <c r="F13" t="n">
-        <v>71141.71323529411</v>
+        <v>73036.26715686274</v>
       </c>
       <c r="G13" t="n">
-        <v>1268779.18627451</v>
+        <v>1285095.691176471</v>
       </c>
       <c r="H13" t="n">
-        <v>6235237.12990196</v>
+        <v>6289679.860294118</v>
       </c>
       <c r="I13" t="n">
-        <v>5950035.80882353</v>
+        <v>5922349.176470588</v>
       </c>
       <c r="J13" t="n">
-        <v>4129627.575980392</v>
+        <v>4083008.779411765</v>
       </c>
       <c r="K13" t="n">
-        <v>4932052.860294118</v>
+        <v>4884051.68627451</v>
       </c>
       <c r="L13" t="n">
-        <v>349508.0612745098</v>
+        <v>348974.4387254902</v>
       </c>
       <c r="M13" t="n">
-        <v>18598.46568627451</v>
+        <v>18751.75490196078</v>
       </c>
       <c r="N13" t="n">
-        <v>27010603.5245098</v>
+        <v>27504095.98529412</v>
       </c>
       <c r="O13" t="n">
-        <v>27188303.43382353</v>
+        <v>27610821.81617647</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3088235294117647</v>
+        <v>0.1985294117647059</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.04411764705882353</v>
+        <v>0.1985294117647059</v>
       </c>
       <c r="R13" t="n">
-        <v>44348235.09803922</v>
+        <v>43820964.00245098</v>
       </c>
       <c r="S13" t="n">
-        <v>285883859.1519608</v>
+        <v>284301787.0294118</v>
       </c>
     </row>
     <row r="14">
@@ -1176,58 +1176,58 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10476631</v>
+        <v>8836001</v>
       </c>
       <c r="C14" t="n">
-        <v>36809</v>
+        <v>37356</v>
       </c>
       <c r="D14" t="n">
-        <v>116688706.75</v>
+        <v>114191791</v>
       </c>
       <c r="E14" t="n">
-        <v>250288977</v>
+        <v>240971770</v>
       </c>
       <c r="F14" t="n">
-        <v>507729.25</v>
+        <v>613385.3333333334</v>
       </c>
       <c r="G14" t="n">
-        <v>1589420.25</v>
+        <v>1409395</v>
       </c>
       <c r="H14" t="n">
-        <v>2318336.5</v>
+        <v>3560909</v>
       </c>
       <c r="I14" t="n">
-        <v>5415384.5</v>
+        <v>4682639</v>
       </c>
       <c r="J14" t="n">
-        <v>3515483.25</v>
+        <v>2929061.666666667</v>
       </c>
       <c r="K14" t="n">
-        <v>4324260.25</v>
+        <v>3574276.333333333</v>
       </c>
       <c r="L14" t="n">
-        <v>549434.25</v>
+        <v>776067.6666666666</v>
       </c>
       <c r="M14" t="n">
-        <v>25210.25</v>
+        <v>27300.66666666667</v>
       </c>
       <c r="N14" t="n">
-        <v>12959132</v>
+        <v>12762042</v>
       </c>
       <c r="O14" t="n">
-        <v>15145274</v>
+        <v>14287476.66666667</v>
       </c>
       <c r="P14" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>634.5</v>
+        <v>806</v>
       </c>
       <c r="R14" t="n">
-        <v>37898301</v>
+        <v>38698621</v>
       </c>
       <c r="S14" t="n">
-        <v>339668478.25</v>
+        <v>332024426</v>
       </c>
     </row>
     <row r="15">
@@ -1235,58 +1235,58 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8756061</v>
+        <v>5167908.142857143</v>
       </c>
       <c r="C15" t="n">
-        <v>36403.66666666666</v>
+        <v>19574.71428571429</v>
       </c>
       <c r="D15" t="n">
-        <v>114061535.6666667</v>
+        <v>114957845.8571429</v>
       </c>
       <c r="E15" t="n">
-        <v>243777263.6666667</v>
+        <v>134572145.2857143</v>
       </c>
       <c r="F15" t="n">
-        <v>578520.6666666666</v>
+        <v>318342.4285714286</v>
       </c>
       <c r="G15" t="n">
-        <v>1379704</v>
+        <v>667906.1428571428</v>
       </c>
       <c r="H15" t="n">
-        <v>3050437.333333333</v>
+        <v>1253822.857142857</v>
       </c>
       <c r="I15" t="n">
-        <v>4746175.666666667</v>
+        <v>3180729.428571429</v>
       </c>
       <c r="J15" t="n">
-        <v>3005385.333333333</v>
+        <v>2567911.428571429</v>
       </c>
       <c r="K15" t="n">
-        <v>3658615.333333333</v>
+        <v>2877543.571428571</v>
       </c>
       <c r="L15" t="n">
-        <v>769919.6666666666</v>
+        <v>276116.2857142857</v>
       </c>
       <c r="M15" t="n">
-        <v>24694.66666666667</v>
+        <v>14101.71428571429</v>
       </c>
       <c r="N15" t="n">
-        <v>13055010.33333333</v>
+        <v>6784294.428571428</v>
       </c>
       <c r="O15" t="n">
-        <v>15568188.66666667</v>
+        <v>7757596</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="Q15" t="n">
-        <v>696</v>
+        <v>643.4285714285714</v>
       </c>
       <c r="R15" t="n">
-        <v>38521645.33333334</v>
+        <v>32816388.85714286</v>
       </c>
       <c r="S15" t="n">
-        <v>334140781</v>
+        <v>350180067.8571429</v>
       </c>
     </row>
     <row r="16">
@@ -1294,58 +1294,58 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13545988.70171149</v>
+        <v>13751721.41176471</v>
       </c>
       <c r="C16" t="n">
-        <v>38411.94865525673</v>
+        <v>41173.06862745098</v>
       </c>
       <c r="D16" t="n">
-        <v>117883577.8533007</v>
+        <v>117934970.8921569</v>
       </c>
       <c r="E16" t="n">
-        <v>248933060.7114914</v>
+        <v>251539421.377451</v>
       </c>
       <c r="F16" t="n">
-        <v>39664.75061124694</v>
+        <v>40908.25490196078</v>
       </c>
       <c r="G16" t="n">
-        <v>1301477.848410758</v>
+        <v>1261900.541666667</v>
       </c>
       <c r="H16" t="n">
-        <v>6122624.435207824</v>
+        <v>6041213.605392157</v>
       </c>
       <c r="I16" t="n">
-        <v>4977199.202933986</v>
+        <v>5353735.588235294</v>
       </c>
       <c r="J16" t="n">
-        <v>2953055.15403423</v>
+        <v>2995917.044117647</v>
       </c>
       <c r="K16" t="n">
-        <v>3962854.511002445</v>
+        <v>3844234.953431373</v>
       </c>
       <c r="L16" t="n">
-        <v>231867.1051344743</v>
+        <v>224272.2598039216</v>
       </c>
       <c r="M16" t="n">
-        <v>24454.16136919315</v>
+        <v>20165.90441176471</v>
       </c>
       <c r="N16" t="n">
-        <v>33630712.21026895</v>
+        <v>34101513.02205882</v>
       </c>
       <c r="O16" t="n">
-        <v>25211530.11002445</v>
+        <v>34232180.81617647</v>
       </c>
       <c r="P16" t="n">
-        <v>1.244498777506112</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.15158924205379</v>
+        <v>2.931372549019608</v>
       </c>
       <c r="R16" t="n">
-        <v>33425378.84596577</v>
+        <v>35784642.94117647</v>
       </c>
       <c r="S16" t="n">
-        <v>329632159.3716381</v>
+        <v>325644112.4852941</v>
       </c>
     </row>
     <row r="17">
@@ -1353,58 +1353,58 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11949648.11463415</v>
+        <v>12146054.14914425</v>
       </c>
       <c r="C17" t="n">
-        <v>34797.6</v>
+        <v>35291.69926650367</v>
       </c>
       <c r="D17" t="n">
-        <v>117935840.7243902</v>
+        <v>117980510.4621027</v>
       </c>
       <c r="E17" t="n">
-        <v>218202427.2512195</v>
+        <v>219286955.3251834</v>
       </c>
       <c r="F17" t="n">
-        <v>39368.55365853658</v>
+        <v>41914.19315403423</v>
       </c>
       <c r="G17" t="n">
-        <v>1204362.126829268</v>
+        <v>1196699.063569682</v>
       </c>
       <c r="H17" t="n">
-        <v>5638775.978048781</v>
+        <v>5661371.244498777</v>
       </c>
       <c r="I17" t="n">
-        <v>6097036.046341463</v>
+        <v>6156284.985330073</v>
       </c>
       <c r="J17" t="n">
-        <v>4212021.158536585</v>
+        <v>4278055.865525672</v>
       </c>
       <c r="K17" t="n">
-        <v>4866977.970731707</v>
+        <v>4984288.46210269</v>
       </c>
       <c r="L17" t="n">
-        <v>397026.5829268293</v>
+        <v>400760.488997555</v>
       </c>
       <c r="M17" t="n">
-        <v>20185.14390243902</v>
+        <v>19829.71882640587</v>
       </c>
       <c r="N17" t="n">
-        <v>29872915.63902439</v>
+        <v>30321175.41809291</v>
       </c>
       <c r="O17" t="n">
-        <v>28866028.01463415</v>
+        <v>30450120.99022005</v>
       </c>
       <c r="P17" t="n">
-        <v>2.068292682926829</v>
+        <v>0.1320293398533007</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.5926829268292683</v>
+        <v>0.02200488997555012</v>
       </c>
       <c r="R17" t="n">
-        <v>43690173.32439025</v>
+        <v>45039385.48410758</v>
       </c>
       <c r="S17" t="n">
-        <v>291945548.9658536</v>
+        <v>288902524.3202934</v>
       </c>
     </row>
     <row r="18">
@@ -1412,58 +1412,58 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11754161.04889975</v>
+        <v>11695627.22058824</v>
       </c>
       <c r="C18" t="n">
-        <v>34804.65281173594</v>
+        <v>34348.03431372549</v>
       </c>
       <c r="D18" t="n">
-        <v>118067655.9682152</v>
+        <v>117988623.2843137</v>
       </c>
       <c r="E18" t="n">
-        <v>218221620.3374083</v>
+        <v>214890571.5220588</v>
       </c>
       <c r="F18" t="n">
-        <v>51082.78239608802</v>
+        <v>56766.01960784314</v>
       </c>
       <c r="G18" t="n">
-        <v>1184230.550122249</v>
+        <v>1229262.81127451</v>
       </c>
       <c r="H18" t="n">
-        <v>5241196.613691932</v>
+        <v>5210785.031862745</v>
       </c>
       <c r="I18" t="n">
-        <v>5831370.909535453</v>
+        <v>5799365.330882353</v>
       </c>
       <c r="J18" t="n">
-        <v>4013561.975550122</v>
+        <v>3955049.453431373</v>
       </c>
       <c r="K18" t="n">
-        <v>4703896.305623472</v>
+        <v>4668674.012254902</v>
       </c>
       <c r="L18" t="n">
-        <v>393453.3667481663</v>
+        <v>395342.5980392157</v>
       </c>
       <c r="M18" t="n">
-        <v>21599.88508557457</v>
+        <v>22816.13480392157</v>
       </c>
       <c r="N18" t="n">
-        <v>28458928.96332518</v>
+        <v>28289983.40196078</v>
       </c>
       <c r="O18" t="n">
-        <v>24761231.07090465</v>
+        <v>28400609.84558824</v>
       </c>
       <c r="P18" t="n">
-        <v>2.520782396088019</v>
+        <v>1.83578431372549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5061124694376528</v>
+        <v>1.036764705882353</v>
       </c>
       <c r="R18" t="n">
-        <v>45319335.47432763</v>
+        <v>44814882.77696078</v>
       </c>
       <c r="S18" t="n">
-        <v>283461481.797066</v>
+        <v>280332037.0514706</v>
       </c>
     </row>
     <row r="19">
@@ -1471,58 +1471,58 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10512513.125</v>
+        <v>7324394.454545454</v>
       </c>
       <c r="C19" t="n">
-        <v>38554.625</v>
+        <v>27432.36363636364</v>
       </c>
       <c r="D19" t="n">
-        <v>116337197.375</v>
+        <v>116364933.0909091</v>
       </c>
       <c r="E19" t="n">
-        <v>225560902</v>
+        <v>161142629.3636364</v>
       </c>
       <c r="F19" t="n">
-        <v>275866.625</v>
+        <v>175258</v>
       </c>
       <c r="G19" t="n">
-        <v>386220.5</v>
+        <v>309639.6363636364</v>
       </c>
       <c r="H19" t="n">
-        <v>1371424</v>
+        <v>1114138.909090909</v>
       </c>
       <c r="I19" t="n">
-        <v>948132.125</v>
+        <v>1467792.818181818</v>
       </c>
       <c r="J19" t="n">
-        <v>527370.125</v>
+        <v>787827.1818181818</v>
       </c>
       <c r="K19" t="n">
-        <v>753342.25</v>
+        <v>968010.2727272727</v>
       </c>
       <c r="L19" t="n">
-        <v>96314.625</v>
+        <v>110801.3636363636</v>
       </c>
       <c r="M19" t="n">
-        <v>14870</v>
+        <v>18744</v>
       </c>
       <c r="N19" t="n">
-        <v>13109032.75</v>
+        <v>9182206.181818182</v>
       </c>
       <c r="O19" t="n">
-        <v>13724335.5</v>
+        <v>9671169.363636363</v>
       </c>
       <c r="P19" t="n">
-        <v>3.375</v>
+        <v>39.45454545454545</v>
       </c>
       <c r="Q19" t="n">
-        <v>279.625</v>
+        <v>141.9090909090909</v>
       </c>
       <c r="R19" t="n">
-        <v>42460761.125</v>
+        <v>35565456.54545455</v>
       </c>
       <c r="S19" t="n">
-        <v>303530961.875</v>
+        <v>330132384.7272727</v>
       </c>
     </row>
     <row r="20">
@@ -1530,58 +1530,58 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8362985.461538462</v>
+        <v>6324140.529411765</v>
       </c>
       <c r="C20" t="n">
-        <v>11987.38461538462</v>
+        <v>8825.64705882353</v>
       </c>
       <c r="D20" t="n">
-        <v>117160035.5384615</v>
+        <v>116779610</v>
       </c>
       <c r="E20" t="n">
-        <v>211197627.4615385</v>
+        <v>159341606.4705882</v>
       </c>
       <c r="F20" t="n">
-        <v>70494.15384615384</v>
+        <v>59695.82352941176</v>
       </c>
       <c r="G20" t="n">
-        <v>115604.6153846154</v>
+        <v>134896</v>
       </c>
       <c r="H20" t="n">
-        <v>2811.769230769231</v>
+        <v>2833.294117647059</v>
       </c>
       <c r="I20" t="n">
-        <v>239260.9230769231</v>
+        <v>272413.4705882353</v>
       </c>
       <c r="J20" t="n">
-        <v>14049.15384615385</v>
+        <v>10875.29411764706</v>
       </c>
       <c r="K20" t="n">
-        <v>22233.69230769231</v>
+        <v>22967</v>
       </c>
       <c r="L20" t="n">
-        <v>125530.8461538462</v>
+        <v>128424.2352941177</v>
       </c>
       <c r="M20" t="n">
-        <v>9261.153846153846</v>
+        <v>8866.176470588236</v>
       </c>
       <c r="N20" t="n">
-        <v>13204137.92307692</v>
+        <v>11229985.94117647</v>
       </c>
       <c r="O20" t="n">
-        <v>13702987.84615385</v>
+        <v>8553893.823529411</v>
       </c>
       <c r="P20" t="n">
-        <v>3.461538461538462</v>
+        <v>3.588235294117647</v>
       </c>
       <c r="Q20" t="n">
-        <v>148.3076923076923</v>
+        <v>95.35294117647059</v>
       </c>
       <c r="R20" t="n">
-        <v>45148335</v>
+        <v>46073623.82352941</v>
       </c>
       <c r="S20" t="n">
-        <v>304209190.5384616</v>
+        <v>309045102.4705882</v>
       </c>
     </row>
     <row r="21">
@@ -1589,58 +1589,58 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12304685</v>
+        <v>12229864</v>
       </c>
       <c r="C21" t="n">
-        <v>51480</v>
+        <v>51811</v>
       </c>
       <c r="D21" t="n">
-        <v>117257026</v>
+        <v>117319617</v>
       </c>
       <c r="E21" t="n">
-        <v>201912837</v>
+        <v>200904548</v>
       </c>
       <c r="F21" t="n">
-        <v>34948</v>
+        <v>40173</v>
       </c>
       <c r="G21" t="n">
-        <v>142025</v>
+        <v>129465</v>
       </c>
       <c r="H21" t="n">
-        <v>2819</v>
+        <v>2799</v>
       </c>
       <c r="I21" t="n">
-        <v>548350</v>
+        <v>550857</v>
       </c>
       <c r="J21" t="n">
-        <v>497322</v>
+        <v>501098</v>
       </c>
       <c r="K21" t="n">
-        <v>567496</v>
+        <v>568913</v>
       </c>
       <c r="L21" t="n">
-        <v>2642</v>
+        <v>2543</v>
       </c>
       <c r="M21" t="n">
-        <v>21299</v>
+        <v>21068</v>
       </c>
       <c r="N21" t="n">
-        <v>13086401</v>
+        <v>13201131</v>
       </c>
       <c r="O21" t="n">
-        <v>13244414</v>
+        <v>13227688</v>
       </c>
       <c r="P21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45838371</v>
+        <v>45579339</v>
       </c>
       <c r="S21" t="n">
-        <v>283519432</v>
+        <v>284345254</v>
       </c>
     </row>
   </sheetData>
